--- a/QA.xlsx
+++ b/QA.xlsx
@@ -16,34 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ホワイトボード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイズ他</t>
-    <rPh sb="3" eb="4">
-      <t>ホカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試し入れ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シート名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -61,47 +36,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>何の内容を記入しますか？</t>
-    <rPh sb="0" eb="1">
-      <t>ナン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キニュウ</t>
-    </rPh>
+    <t>空き予定</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>物件紹介</t>
+    <t>契約は間もなく終了、どのぐらいの期間？</t>
     <rPh sb="0" eb="2">
-      <t>ブッケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既契約者とテナントの二つの項目があって、それぞれの違いはなんでしょうか？</t>
-    <rPh sb="10" eb="11">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不投函リスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オーナーリスト有無とオーナーリスト伺いの二つの項目があって、それぞれの違いはなんでしょうか？</t>
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -448,62 +399,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/QA.xlsx
+++ b/QA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ホワイトボード</t>
     <phoneticPr fontId="1"/>
@@ -52,6 +52,67 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【条件】
+新規駐車場登録時、賃貸革命に｢新規物件｣として登録するです
+【質問】
+以前にはすでに登録であり、オーナー側により強制解約したのですが、今度はまた新規物件として登録ですか？ホワイトボードにも同様に、新しい行を作成して登録ですか？</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カイヤク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>コンド</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ブッケン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【条件】
+新規駐車場登録時
+【場所】
+ホワイトボード⇒ﾈｯﾄ仲介(0712更)
+【質問】
+該当地域に新しい行を作成し、月額賃料記入するんですが、「募集賃料」、「ホームページ価格」、「チラシ価格」のどっちを入力？</t>
+    <rPh sb="104" eb="106">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -96,8 +157,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -399,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -431,6 +495,16 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="2:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
